--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1927174.968475219</v>
+        <v>1896992.732325092</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>264812.497787011</v>
+        <v>190398.7286330001</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156753</v>
+        <v>5996855.681156754</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>110.2530958569708</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.42622435099841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -797,7 +797,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>275.1622158054969</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.708159756072259</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>8.274420329198929</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.45403149117925</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>67.24036028042069</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.2349848485208</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>150.7923813103633</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8100533453326</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>52.82290122762556</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7.058423000548196</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903397</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>44.94101498269113</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>263.0463428239916</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>73.31370764131968</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>216.6993815150877</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>228.9082438717413</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>139.1005047045661</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>101.7806877295493</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>340.0237825764897</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>46.45345203807881</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="H22" t="n">
-        <v>71.41172425543419</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>87.79355960753867</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>51.03970828599206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>129.8188433654458</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>147.6687976612681</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>105.7443427977094</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>63.00997931718602</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654458</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>145.3091054700679</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>105.0687188015103</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>103.7162804660433</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>265.4244118262841</v>
+        <v>323.9519724193951</v>
       </c>
       <c r="G29" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>87.11299471729416</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>79.9856103771547</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>200.7804354367706</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I32" t="n">
         <v>129.8188433654458</v>
@@ -3079,16 +3079,16 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S32" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>176.8640025054381</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>142.225049861892</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.8834111013403</v>
       </c>
       <c r="I34" t="n">
-        <v>127.2284271446648</v>
+        <v>50.845229019865</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.578826164188811</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>135.0968229573668</v>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>173.4950219682918</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>290.4078042001952</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.78612906518766</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>79.9856103771547</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>79.42099671848747</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>146.602323834644</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,10 +3559,10 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>2.594187751786432</v>
       </c>
       <c r="W40" t="n">
-        <v>114.3709653899177</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>318.0487214609057</v>
+        <v>244.828185147819</v>
       </c>
       <c r="I41" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>158.1680812604656</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>87.30729632931485</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.2696601345979</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>116.8207034525825</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
-        <v>159.0848423798735</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1782820837292</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>101.4244830952565</v>
       </c>
       <c r="I45" t="n">
-        <v>50.85619463218985</v>
+        <v>50.85619463218986</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>30.65739549896767</v>
+        <v>30.65739549896769</v>
       </c>
       <c r="S45" t="n">
         <v>150.8909729053132</v>
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.0555762462924</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>87.11061241409692</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="D2" t="n">
         <v>1749.341643278937</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1749.341643278937</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>222.8791647482714</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1580.775345511217</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.812828570805</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>633.7307662596122</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.372765927088</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533155</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073314</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224085</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="6">
@@ -4628,10 +4628,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572643</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>663.910013048764</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C7" t="n">
-        <v>663.910013048764</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>663.910013048764</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S7" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T7" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U7" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V7" t="n">
-        <v>663.910013048764</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W7" t="n">
-        <v>663.910013048764</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="X7" t="n">
-        <v>663.910013048764</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="Y7" t="n">
-        <v>663.910013048764</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4840,16 +4840,16 @@
         <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.124202655613</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>357.2197656505683</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>209.3066720681752</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>209.3066720681752</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C11" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D11" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
         <v>463.9616490733127</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2690.019370815648</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2513.841883129819</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2295.207216101881</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2041.445430739973</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>1710.382543396402</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>1357.613888126288</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>984.1481298652084</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y11" t="n">
-        <v>594.0087978893966</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="12">
@@ -5096,67 +5096,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5205,34 +5205,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810048</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V13" t="n">
         <v>53.94298182036445</v>
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>468.3004633897571</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C14" t="n">
-        <v>99.3379464493454</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D14" t="n">
-        <v>99.3379464493454</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E14" t="n">
-        <v>99.3379464493454</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>99.3379464493454</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>99.3379464493454</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>99.3379464493454</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2302.336936304455</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>1971.274048960885</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W14" t="n">
-        <v>1618.50539369077</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X14" t="n">
-        <v>1245.039635429691</v>
+        <v>2122.655239596916</v>
       </c>
       <c r="Y14" t="n">
-        <v>854.9003034538789</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
         <v>1194.968834417902</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E16" t="n">
-        <v>580.2158906240413</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F16" t="n">
-        <v>433.3259431261309</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G16" t="n">
-        <v>264.3261428644633</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1430.355453824634</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C17" t="n">
-        <v>1061.392936884222</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D17" t="n">
-        <v>703.1272382774719</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>703.1272382774719</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5518,10 +5518,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5545,22 +5545,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2501.614841241073</v>
       </c>
       <c r="V17" t="n">
-        <v>2169.72394915887</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="W17" t="n">
-        <v>1816.955293888756</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="X17" t="n">
-        <v>1816.955293888756</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="Y17" t="n">
-        <v>1816.955293888756</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5594,13 +5594,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5615,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>952.5674858910851</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C20" t="n">
-        <v>952.5674858910851</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D20" t="n">
-        <v>952.5674858910851</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E20" t="n">
-        <v>952.5674858910851</v>
+        <v>808.3872528488505</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>397.4013480592429</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
@@ -5782,22 +5782,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2650.22641219188</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2396.464626829972</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2065.401739486401</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1712.633084216287</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X20" t="n">
-        <v>1339.167325955207</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y20" t="n">
-        <v>1339.167325955207</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
         <v>266.2060027641992</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="C22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="D22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="E22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="F22" t="n">
-        <v>2231.425054336974</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="G22" t="n">
-        <v>2231.425054336974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2667.732171871844</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U22" t="n">
-        <v>2667.732171871844</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V22" t="n">
-        <v>2667.732171871844</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="Y22" t="n">
-        <v>2378.315001834884</v>
+        <v>211.6471865296041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2191.27452192045</v>
+        <v>1056.264408046191</v>
       </c>
       <c r="C23" t="n">
-        <v>1822.312004980039</v>
+        <v>967.5840448062531</v>
       </c>
       <c r="D23" t="n">
-        <v>1464.046306373288</v>
+        <v>609.3183461995027</v>
       </c>
       <c r="E23" t="n">
-        <v>1078.258053775044</v>
+        <v>609.3183461995027</v>
       </c>
       <c r="F23" t="n">
-        <v>667.2721489854364</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="G23" t="n">
-        <v>249.8877023048366</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H23" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J23" t="n">
-        <v>231.1641949821405</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726758</v>
       </c>
       <c r="L23" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N23" t="n">
         <v>2260.663407417571</v>
@@ -6007,34 +6007,34 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P23" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q23" t="n">
         <v>3360.114829815676</v>
       </c>
       <c r="R23" t="n">
-        <v>3341.479452221464</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S23" t="n">
-        <v>3341.479452221464</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="T23" t="n">
-        <v>3341.479452221464</v>
+        <v>3144.016317409101</v>
       </c>
       <c r="U23" t="n">
-        <v>3341.479452221464</v>
+        <v>2890.30088096089</v>
       </c>
       <c r="V23" t="n">
-        <v>3341.479452221464</v>
+        <v>2559.237993617319</v>
       </c>
       <c r="W23" t="n">
-        <v>3341.479452221464</v>
+        <v>2206.469338347204</v>
       </c>
       <c r="X23" t="n">
-        <v>2968.013693960384</v>
+        <v>1833.003580086125</v>
       </c>
       <c r="Y23" t="n">
-        <v>2577.874361984572</v>
+        <v>1442.864248110313</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H24" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J24" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K24" t="n">
-        <v>371.5093956067678</v>
+        <v>318.7491850275574</v>
       </c>
       <c r="L24" t="n">
-        <v>842.0922403416541</v>
+        <v>318.7491850275574</v>
       </c>
       <c r="M24" t="n">
-        <v>1443.219445828731</v>
+        <v>919.8763905146342</v>
       </c>
       <c r="N24" t="n">
         <v>1552.620657808586</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.3626982743621</v>
+        <v>324.131403481083</v>
       </c>
       <c r="C25" t="n">
-        <v>216.3626982743621</v>
+        <v>324.131403481083</v>
       </c>
       <c r="D25" t="n">
-        <v>67.20229659631352</v>
+        <v>174.0147640687473</v>
       </c>
       <c r="E25" t="n">
-        <v>67.20229659631352</v>
+        <v>174.0147640687473</v>
       </c>
       <c r="F25" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G25" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H25" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I25" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J25" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K25" t="n">
         <v>153.0971541490671</v>
@@ -6186,13 +6186,13 @@
         <v>954.5619983528702</v>
       </c>
       <c r="W25" t="n">
-        <v>665.1448283159095</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="X25" t="n">
-        <v>437.1552774178922</v>
+        <v>726.5724474548529</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.3626982743621</v>
+        <v>505.7798683113227</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1037.629030451979</v>
+        <v>1691.728992438146</v>
       </c>
       <c r="C26" t="n">
-        <v>973.9825866972453</v>
+        <v>1322.766475497735</v>
       </c>
       <c r="D26" t="n">
-        <v>615.7168880904949</v>
+        <v>1322.766475497735</v>
       </c>
       <c r="E26" t="n">
-        <v>615.7168880904949</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="F26" t="n">
-        <v>615.7168880904949</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G26" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H26" t="n">
         <v>198.3324414098951</v>
@@ -6226,10 +6226,10 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
@@ -6241,7 +6241,7 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O26" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P26" t="n">
         <v>3146.337816775583</v>
@@ -6256,22 +6256,22 @@
         <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>3125.380939814888</v>
+        <v>3194.702578009274</v>
       </c>
       <c r="U26" t="n">
-        <v>2871.665503366677</v>
+        <v>3194.702578009274</v>
       </c>
       <c r="V26" t="n">
-        <v>2540.602616023106</v>
+        <v>3194.702578009274</v>
       </c>
       <c r="W26" t="n">
-        <v>2187.833960752992</v>
+        <v>2841.93392273916</v>
       </c>
       <c r="X26" t="n">
-        <v>1814.368202491912</v>
+        <v>2468.46816447808</v>
       </c>
       <c r="Y26" t="n">
-        <v>1424.2288705161</v>
+        <v>2078.328832502268</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>67.20229659631352</v>
       </c>
       <c r="K27" t="n">
-        <v>109.688810964315</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L27" t="n">
-        <v>339.6519168326641</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M27" t="n">
-        <v>919.8763905146342</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N27" t="n">
-        <v>1552.620657808586</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="O27" t="n">
         <v>2065.042367504972</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>772.9135335226305</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="C28" t="n">
-        <v>772.9135335226305</v>
+        <v>680.8618957622933</v>
       </c>
       <c r="D28" t="n">
-        <v>772.9135335226305</v>
+        <v>530.7452563499576</v>
       </c>
       <c r="E28" t="n">
-        <v>666.7835145312059</v>
+        <v>382.8321627675644</v>
       </c>
       <c r="F28" t="n">
-        <v>519.8935670332955</v>
+        <v>235.942215269654</v>
       </c>
       <c r="G28" t="n">
-        <v>351.153648359955</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H28" t="n">
-        <v>195.7158593687022</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I28" t="n">
         <v>67.20229659631352</v>
@@ -6417,19 +6417,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U28" t="n">
-        <v>954.5619983528702</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="V28" t="n">
-        <v>954.5619983528702</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="W28" t="n">
-        <v>954.5619983528702</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="X28" t="n">
-        <v>954.5619983528702</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="Y28" t="n">
-        <v>954.5619983528702</v>
+        <v>849.7980786902002</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1138.480462366354</v>
       </c>
       <c r="D29" t="n">
-        <v>1138.480462366354</v>
+        <v>780.2147637596033</v>
       </c>
       <c r="E29" t="n">
-        <v>752.6922097681095</v>
+        <v>394.4265111613591</v>
       </c>
       <c r="F29" t="n">
-        <v>484.5867432769134</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G29" t="n">
         <v>67.20229659631352</v>
@@ -6542,25 +6542,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J30" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K30" t="n">
-        <v>475.4705993509098</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L30" t="n">
-        <v>705.4337052192589</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.769024748961</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.620657808586</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O30" t="n">
-        <v>2065.042367504972</v>
+        <v>2588.385422819068</v>
       </c>
       <c r="P30" t="n">
-        <v>2459.30289775485</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2729.684234943889</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C31" t="n">
-        <v>2560.748052015982</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J31" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K31" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L31" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M31" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N31" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O31" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T31" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U31" t="n">
-        <v>3360.114829815676</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V31" t="n">
-        <v>3360.114829815676</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="W31" t="n">
-        <v>3360.114829815676</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="X31" t="n">
-        <v>3132.125278917659</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="Y31" t="n">
-        <v>2911.332699774129</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1128.36917760026</v>
+        <v>2049.994691044897</v>
       </c>
       <c r="C32" t="n">
-        <v>759.4066606598483</v>
+        <v>1681.032174104485</v>
       </c>
       <c r="D32" t="n">
-        <v>401.1409620530978</v>
+        <v>1322.766475497735</v>
       </c>
       <c r="E32" t="n">
-        <v>198.3324414098951</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="F32" t="n">
-        <v>198.3324414098951</v>
+        <v>936.9782228994906</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H32" t="n">
         <v>198.3324414098951</v>
@@ -6700,10 +6700,10 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908085</v>
@@ -6715,7 +6715,7 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P32" t="n">
         <v>3146.337816775583</v>
@@ -6727,25 +6727,25 @@
         <v>3341.479452221464</v>
       </c>
       <c r="S32" t="n">
-        <v>3178.504162921534</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T32" t="n">
-        <v>2962.405650514958</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U32" t="n">
-        <v>2962.405650514958</v>
+        <v>3162.828944640213</v>
       </c>
       <c r="V32" t="n">
-        <v>2631.342763171388</v>
+        <v>3162.828944640213</v>
       </c>
       <c r="W32" t="n">
-        <v>2278.574107901273</v>
+        <v>2810.060289370099</v>
       </c>
       <c r="X32" t="n">
-        <v>1905.108349640193</v>
+        <v>2436.594531109019</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.969017664382</v>
+        <v>2436.594531109019</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>67.20229659631352</v>
+        <v>171.1635003404555</v>
       </c>
       <c r="K33" t="n">
-        <v>371.5093956067678</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L33" t="n">
-        <v>842.0922403416541</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M33" t="n">
-        <v>1443.219445828731</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N33" t="n">
-        <v>2075.963713122682</v>
+        <v>1552.620657808586</v>
       </c>
       <c r="O33" t="n">
-        <v>2588.385422819068</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P33" t="n">
-        <v>2600.763293269883</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>810.4451810583696</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="C34" t="n">
-        <v>810.4451810583696</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="D34" t="n">
-        <v>810.4451810583696</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="E34" t="n">
-        <v>666.7835145312059</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="F34" t="n">
-        <v>519.8935670332955</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="G34" t="n">
-        <v>351.153648359955</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="H34" t="n">
-        <v>195.7158593687022</v>
+        <v>118.5611137880963</v>
       </c>
       <c r="I34" t="n">
         <v>67.20229659631352</v>
@@ -6879,31 +6879,31 @@
         <v>954.5619983528702</v>
       </c>
       <c r="Q34" t="n">
-        <v>946.9066183890432</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>810.4451810583696</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S34" t="n">
-        <v>810.4451810583696</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="T34" t="n">
-        <v>810.4451810583696</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="U34" t="n">
-        <v>810.4451810583696</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="V34" t="n">
-        <v>810.4451810583696</v>
+        <v>563.4160728163098</v>
       </c>
       <c r="W34" t="n">
-        <v>810.4451810583696</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="X34" t="n">
-        <v>810.4451810583696</v>
+        <v>273.9989027793492</v>
       </c>
       <c r="Y34" t="n">
-        <v>810.4451810583696</v>
+        <v>273.9989027793492</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1115.691846952471</v>
+        <v>1722.334814344909</v>
       </c>
       <c r="C35" t="n">
-        <v>746.7293300120596</v>
+        <v>1353.372297404497</v>
       </c>
       <c r="D35" t="n">
-        <v>388.4636314053091</v>
+        <v>995.106598797747</v>
       </c>
       <c r="E35" t="n">
-        <v>388.4636314053091</v>
+        <v>609.3183461995027</v>
       </c>
       <c r="F35" t="n">
-        <v>388.4636314053091</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="G35" t="n">
-        <v>388.4636314053091</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H35" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I35" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J35" t="n">
-        <v>231.1641949821403</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726758</v>
       </c>
       <c r="L35" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M35" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N35" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.663407417572</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696549</v>
       </c>
       <c r="P35" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q35" t="n">
         <v>3360.114829815676</v>
       </c>
       <c r="R35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S35" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.0163174091</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U35" t="n">
-        <v>2890.300880960889</v>
+        <v>3166.231955283796</v>
       </c>
       <c r="V35" t="n">
-        <v>2559.237993617318</v>
+        <v>2835.169067940225</v>
       </c>
       <c r="W35" t="n">
-        <v>2265.896777253485</v>
+        <v>2482.400412670111</v>
       </c>
       <c r="X35" t="n">
-        <v>1892.431018992405</v>
+        <v>2108.934654409031</v>
       </c>
       <c r="Y35" t="n">
-        <v>1502.291687016593</v>
+        <v>2108.934654409031</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H36" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I36" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J36" t="n">
         <v>171.1635003404555</v>
       </c>
       <c r="K36" t="n">
-        <v>296.5210603982929</v>
+        <v>475.4705993509098</v>
       </c>
       <c r="L36" t="n">
-        <v>767.1039051331793</v>
+        <v>946.0534440857962</v>
       </c>
       <c r="M36" t="n">
-        <v>1131.493443151162</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N36" t="n">
-        <v>1764.237710445113</v>
+        <v>1763.475611836948</v>
       </c>
       <c r="O36" t="n">
-        <v>2276.659420141499</v>
+        <v>2275.897321533334</v>
       </c>
       <c r="P36" t="n">
-        <v>2459.30289775485</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2957.673785841906</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C37" t="n">
-        <v>2788.737602913999</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D37" t="n">
-        <v>2638.620963501663</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E37" t="n">
-        <v>2619.645075557029</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J37" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K37" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L37" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M37" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N37" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O37" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P37" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q37" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R37" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S37" t="n">
-        <v>3360.114829815676</v>
+        <v>873.7684525173604</v>
       </c>
       <c r="T37" t="n">
-        <v>3360.114829815676</v>
+        <v>873.7684525173604</v>
       </c>
       <c r="U37" t="n">
-        <v>3360.114829815676</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="V37" t="n">
-        <v>3360.114829815676</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="W37" t="n">
-        <v>3360.114829815676</v>
+        <v>295.1918474943309</v>
       </c>
       <c r="X37" t="n">
-        <v>3360.114829815676</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="Y37" t="n">
-        <v>3139.322250672146</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>874.653741152049</v>
+        <v>1459.432064943831</v>
       </c>
       <c r="C38" t="n">
-        <v>505.6912242116372</v>
+        <v>1090.469548003419</v>
       </c>
       <c r="D38" t="n">
-        <v>147.4255256048867</v>
+        <v>732.2038493966686</v>
       </c>
       <c r="E38" t="n">
-        <v>67.20229659631352</v>
+        <v>346.4155967984244</v>
       </c>
       <c r="F38" t="n">
-        <v>67.20229659631352</v>
+        <v>346.4155967984244</v>
       </c>
       <c r="G38" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H38" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I38" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K38" t="n">
         <v>597.6453821726751</v>
@@ -7207,19 +7207,19 @@
         <v>2962.405650514958</v>
       </c>
       <c r="U38" t="n">
-        <v>2708.690214066747</v>
+        <v>2962.405650514958</v>
       </c>
       <c r="V38" t="n">
-        <v>2377.627326723176</v>
+        <v>2962.405650514958</v>
       </c>
       <c r="W38" t="n">
-        <v>2024.858671453062</v>
+        <v>2609.636995244844</v>
       </c>
       <c r="X38" t="n">
-        <v>1651.392913191982</v>
+        <v>2236.171236983764</v>
       </c>
       <c r="Y38" t="n">
-        <v>1261.253581216171</v>
+        <v>1846.031905007952</v>
       </c>
     </row>
     <row r="39">
@@ -7262,16 +7262,16 @@
         <v>946.0534440857962</v>
       </c>
       <c r="M39" t="n">
-        <v>1086.132636460373</v>
+        <v>1547.180649572873</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.620657808586</v>
+        <v>2179.924916866824</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.042367504972</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="P39" t="n">
-        <v>2459.30289775485</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K40" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L40" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M40" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N40" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O40" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P40" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q40" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R40" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S40" t="n">
-        <v>3360.114829815676</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="T40" t="n">
-        <v>3360.114829815676</v>
+        <v>518.604818306332</v>
       </c>
       <c r="U40" t="n">
-        <v>3070.955394829607</v>
+        <v>518.604818306332</v>
       </c>
       <c r="V40" t="n">
-        <v>2816.27090662372</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="W40" t="n">
-        <v>2700.744678957137</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="X40" t="n">
-        <v>2472.755128059119</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y40" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2460.980595834505</v>
+        <v>1838.505866650337</v>
       </c>
       <c r="C41" t="n">
-        <v>2092.018078894093</v>
+        <v>1469.543349709925</v>
       </c>
       <c r="D41" t="n">
-        <v>1733.752380287342</v>
+        <v>1111.277651103175</v>
       </c>
       <c r="E41" t="n">
-        <v>1347.964127689098</v>
+        <v>725.4893985049303</v>
       </c>
       <c r="F41" t="n">
-        <v>936.9782228994906</v>
+        <v>314.5034937153227</v>
       </c>
       <c r="G41" t="n">
-        <v>519.5937762188908</v>
+        <v>314.5034937153227</v>
       </c>
       <c r="H41" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I41" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821403</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726758</v>
       </c>
       <c r="L41" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M41" t="n">
-        <v>1685.237002375317</v>
+        <v>1685.237002375318</v>
       </c>
       <c r="N41" t="n">
         <v>2260.663407417571</v>
@@ -7429,34 +7429,34 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775583</v>
+        <v>3146.337816775584</v>
       </c>
       <c r="Q41" t="n">
         <v>3360.114829815676</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="S41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V41" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="W41" t="n">
-        <v>3007.346174545562</v>
+        <v>2988.71079695135</v>
       </c>
       <c r="X41" t="n">
-        <v>3007.346174545562</v>
+        <v>2615.24503869027</v>
       </c>
       <c r="Y41" t="n">
-        <v>2847.580435898627</v>
+        <v>2225.105706714458</v>
       </c>
     </row>
     <row r="42">
@@ -7481,31 +7481,31 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0211629876734</v>
+        <v>221.0211629876735</v>
       </c>
       <c r="H42" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I42" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631352</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K42" t="n">
         <v>371.5093956067678</v>
       </c>
       <c r="L42" t="n">
-        <v>741.2211916924467</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M42" t="n">
-        <v>1342.348397179524</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N42" t="n">
-        <v>1975.092664473475</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O42" t="n">
-        <v>2487.514374169861</v>
+        <v>2588.385422819068</v>
       </c>
       <c r="P42" t="n">
         <v>2670.157851783212</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2729.684234943889</v>
+        <v>236.1384795242204</v>
       </c>
       <c r="C43" t="n">
-        <v>2729.684234943889</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D43" t="n">
-        <v>2729.684234943889</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E43" t="n">
-        <v>2729.684234943889</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F43" t="n">
-        <v>2729.684234943889</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G43" t="n">
-        <v>2560.944316270548</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H43" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I43" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="J43" t="n">
-        <v>2472.755128059119</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K43" t="n">
-        <v>2558.649985611873</v>
+        <v>153.0971541490671</v>
       </c>
       <c r="L43" t="n">
-        <v>2724.092265317944</v>
+        <v>318.5394338551381</v>
       </c>
       <c r="M43" t="n">
-        <v>2908.917075643209</v>
+        <v>503.3642441804034</v>
       </c>
       <c r="N43" t="n">
-        <v>3094.781781504556</v>
+        <v>689.2289500417503</v>
       </c>
       <c r="O43" t="n">
-        <v>3250.441624927401</v>
+        <v>844.8887934645957</v>
       </c>
       <c r="P43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="Q43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="R43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T43" t="n">
-        <v>3360.114829815676</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U43" t="n">
-        <v>3360.114829815676</v>
+        <v>672.471432560347</v>
       </c>
       <c r="V43" t="n">
-        <v>3360.114829815676</v>
+        <v>417.7869443544602</v>
       </c>
       <c r="W43" t="n">
-        <v>3360.114829815676</v>
+        <v>417.7869443544602</v>
       </c>
       <c r="X43" t="n">
-        <v>3132.125278917659</v>
+        <v>417.7869443544602</v>
       </c>
       <c r="Y43" t="n">
-        <v>2911.332699774129</v>
+        <v>417.7869443544602</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>895.572648066521</v>
+        <v>2030.466714898487</v>
       </c>
       <c r="C44" t="n">
-        <v>895.572648066521</v>
+        <v>1661.504197958076</v>
       </c>
       <c r="D44" t="n">
-        <v>895.572648066521</v>
+        <v>1303.238499351325</v>
       </c>
       <c r="E44" t="n">
-        <v>895.572648066521</v>
+        <v>917.4502467530808</v>
       </c>
       <c r="F44" t="n">
-        <v>484.5867432769134</v>
+        <v>506.4643419634733</v>
       </c>
       <c r="G44" t="n">
-        <v>67.20229659631353</v>
+        <v>506.4643419634733</v>
       </c>
       <c r="H44" t="n">
-        <v>67.20229659631353</v>
+        <v>185.2030071544776</v>
       </c>
       <c r="I44" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J44" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726753</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M44" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N44" t="n">
-        <v>2260.663407417572</v>
+        <v>2260.663407417571</v>
       </c>
       <c r="O44" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P44" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q44" t="n">
-        <v>3360.114829815676</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3360.114829815676</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="S44" t="n">
-        <v>3199.423069836006</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="T44" t="n">
-        <v>2983.324557429431</v>
+        <v>3341.479452221463</v>
       </c>
       <c r="U44" t="n">
-        <v>2729.609120981219</v>
+        <v>3087.764015773252</v>
       </c>
       <c r="V44" t="n">
-        <v>2398.546233637649</v>
+        <v>2756.701128429681</v>
       </c>
       <c r="W44" t="n">
-        <v>2045.777578367534</v>
+        <v>2403.932473159567</v>
       </c>
       <c r="X44" t="n">
-        <v>1672.311820106454</v>
+        <v>2030.466714898487</v>
       </c>
       <c r="Y44" t="n">
-        <v>1282.172488130643</v>
+        <v>2030.466714898487</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>118.5721901641821</v>
       </c>
       <c r="I45" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J45" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K45" t="n">
-        <v>296.5210603982929</v>
+        <v>371.5093956067677</v>
       </c>
       <c r="L45" t="n">
-        <v>526.484166266642</v>
+        <v>842.092240341654</v>
       </c>
       <c r="M45" t="n">
-        <v>919.8763905146342</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.620657808586</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.042367504972</v>
+        <v>2588.385422819068</v>
       </c>
       <c r="P45" t="n">
-        <v>2459.30289775485</v>
+        <v>2670.157851783212</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>665.1448283159095</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C46" t="n">
-        <v>530.7452563499576</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D46" t="n">
-        <v>530.7452563499576</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E46" t="n">
-        <v>382.8321627675645</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F46" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H46" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I46" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J46" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K46" t="n">
-        <v>153.0971541490671</v>
+        <v>153.097154149067</v>
       </c>
       <c r="L46" t="n">
-        <v>318.5394338551381</v>
+        <v>318.539433855138</v>
       </c>
       <c r="M46" t="n">
-        <v>503.3642441804034</v>
+        <v>503.3642441804033</v>
       </c>
       <c r="N46" t="n">
-        <v>689.2289500417503</v>
+        <v>689.2289500417501</v>
       </c>
       <c r="O46" t="n">
-        <v>844.8887934645957</v>
+        <v>844.8887934645954</v>
       </c>
       <c r="P46" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="Q46" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="R46" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="S46" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="T46" t="n">
-        <v>954.5619983528702</v>
+        <v>954.56199835287</v>
       </c>
       <c r="U46" t="n">
-        <v>954.5619983528702</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="V46" t="n">
-        <v>954.5619983528702</v>
+        <v>665.4025633668011</v>
       </c>
       <c r="W46" t="n">
-        <v>665.1448283159095</v>
+        <v>375.9853933298405</v>
       </c>
       <c r="X46" t="n">
-        <v>665.1448283159095</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.1448283159095</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>216.5728205094249</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>136.8366698971847</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>349.8214719460352</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>21.07971842713414</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>216.5728205094249</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>216.5728205094249</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>329.910940435855</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>47.4199795742635</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229438</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>106.9903012621701</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>106.6847578544775</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>82.85718120047547</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>177.9678018699701</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,22 +23785,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>112.1236628037232</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23949,16 +23949,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>73.76038744430531</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>169.994868319579</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>11.18263959690364</v>
       </c>
       <c r="H22" t="n">
-        <v>84.75916458636095</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
         <v>45.19995918853699</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
@@ -24180,16 +24180,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>277.4793321634689</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0090131749136</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,22 +24253,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S23" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9466753569442687</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>39.67670522522185</v>
       </c>
       <c r="G25" t="n">
         <v>167.0525194866071</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,13 +24445,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>302.2629124538215</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>68.62842181244196</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.36524384505887</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J28" t="n">
         <v>27.01006717676063</v>
@@ -24657,7 +24657,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>182.5515601701648</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>141.4516339154273</v>
+        <v>82.9240733223163</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
         <v>318.0487214609057</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>61.5024783009182</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24894,19 +24894,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>172.1520329466733</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>181.1499346354911</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1782820837292</v>
+        <v>74.31427957829109</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>4.208912784677153</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>76.3831981247998</v>
       </c>
       <c r="J34" t="n">
         <v>27.01006717676063</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>7.578826164188811</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>77.68326011543735</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>58.83316451721777</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>127.6478335813815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.0525194866071</v>
@@ -25362,25 +25362,25 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>207.661801906612</v>
+        <v>127.6761915294573</v>
       </c>
       <c r="T37" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>302.5093733537743</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2106022137938</v>
+        <v>266.6082783791499</v>
       </c>
       <c r="H38" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,10 +25447,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>249.5434555720416</v>
       </c>
       <c r="W40" t="n">
-        <v>172.1520329466733</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.22053631308663</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>161.3455364069306</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>228.0698573955879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
-        <v>66.57611477202545</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I43" t="n">
         <v>127.2284271446648</v>
@@ -25842,19 +25842,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>6.998180501610136</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654458</v>
+        <v>12.99813991286332</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2.260694027057127</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>34.19124485233539</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
         <v>153.8834111013403</v>
@@ -26046,7 +26046,7 @@
         <v>127.2284271446648</v>
       </c>
       <c r="J46" t="n">
-        <v>27.01006717676063</v>
+        <v>27.01006717676064</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.578826164188811</v>
+        <v>7.578826164188825</v>
       </c>
       <c r="R46" t="n">
         <v>135.0968229573668</v>
@@ -26079,7 +26079,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>138.5990429749402</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>650593.3725354549</v>
+        <v>650593.3725354548</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650593.3725354549</v>
+        <v>650593.3725354548</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650593.3725354548</v>
+        <v>650593.3725354547</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>722888.1683131841</v>
+        <v>722888.1683131839</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722888.1683131842</v>
+        <v>722888.1683131841</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722888.1683131841</v>
+        <v>722888.1683131839</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
         <v>361440.7625196971</v>
@@ -26331,19 +26331,19 @@
         <v>361440.7625196971</v>
       </c>
       <c r="H2" t="n">
-        <v>361440.7625196973</v>
+        <v>361440.7625196972</v>
       </c>
       <c r="I2" t="n">
+        <v>401604.5379517687</v>
+      </c>
+      <c r="J2" t="n">
         <v>401604.5379517686</v>
       </c>
-      <c r="J2" t="n">
-        <v>401604.5379517687</v>
-      </c>
       <c r="K2" t="n">
-        <v>401604.5379517687</v>
+        <v>401604.5379517685</v>
       </c>
       <c r="L2" t="n">
-        <v>401604.5379517687</v>
+        <v>401604.5379517686</v>
       </c>
       <c r="M2" t="n">
         <v>401604.5379517686</v>
@@ -26355,7 +26355,7 @@
         <v>401604.5379517686</v>
       </c>
       <c r="P2" t="n">
-        <v>401604.5379517688</v>
+        <v>401604.5379517686</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033438</v>
+        <v>151472.5856033439</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26429,19 +26429,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
+        <v>596.6330091308228</v>
+      </c>
+      <c r="J4" t="n">
         <v>596.6330091308229</v>
-      </c>
-      <c r="J4" t="n">
-        <v>596.6330091308228</v>
       </c>
       <c r="K4" t="n">
         <v>596.6330091308228</v>
@@ -26459,7 +26459,7 @@
         <v>596.6330091308228</v>
       </c>
       <c r="P4" t="n">
-        <v>596.6330091308228</v>
+        <v>596.6330091308226</v>
       </c>
     </row>
     <row r="5">
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="J5" t="n">
         <v>62418.87211854676</v>
@@ -26502,16 +26502,16 @@
         <v>62418.87211854676</v>
       </c>
       <c r="M5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="N5" t="n">
         <v>62418.87211854676</v>
       </c>
       <c r="O5" t="n">
-        <v>62418.87211854676</v>
+        <v>62418.87211854677</v>
       </c>
       <c r="P5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854675</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933961</v>
+        <v>-298734.9902933963</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211484</v>
+        <v>291232.8889211485</v>
       </c>
       <c r="D6" t="n">
         <v>291232.8889211483</v>
       </c>
       <c r="E6" t="n">
-        <v>311696.175957228</v>
+        <v>305627.7622114088</v>
       </c>
       <c r="F6" t="n">
-        <v>311696.1759572279</v>
+        <v>305627.7622114088</v>
       </c>
       <c r="G6" t="n">
-        <v>311696.175957228</v>
+        <v>305627.7622114088</v>
       </c>
       <c r="H6" t="n">
-        <v>311696.1759572281</v>
+        <v>305627.7622114089</v>
       </c>
       <c r="I6" t="n">
-        <v>187116.4472207472</v>
+        <v>182654.5844922109</v>
       </c>
       <c r="J6" t="n">
-        <v>162165.8136314981</v>
+        <v>157703.9509029617</v>
       </c>
       <c r="K6" t="n">
-        <v>338589.0328240911</v>
+        <v>334127.1700955546</v>
       </c>
       <c r="L6" t="n">
-        <v>338589.0328240911</v>
+        <v>334127.1700955546</v>
       </c>
       <c r="M6" t="n">
-        <v>338589.032824091</v>
+        <v>334127.1700955546</v>
       </c>
       <c r="N6" t="n">
-        <v>338589.032824091</v>
+        <v>334127.1700955546</v>
       </c>
       <c r="O6" t="n">
-        <v>338589.032824091</v>
+        <v>334127.1700955546</v>
       </c>
       <c r="P6" t="n">
-        <v>338589.0328240911</v>
+        <v>334127.1700955547</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170867</v>
@@ -26779,7 +26779,7 @@
         <v>520.4186562086462</v>
       </c>
       <c r="P3" t="n">
-        <v>520.4186562086462</v>
+        <v>520.4186562086461</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,7 +26810,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="J4" t="n">
         <v>840.028707453919</v>
@@ -26822,16 +26822,16 @@
         <v>840.028707453919</v>
       </c>
       <c r="M4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="N4" t="n">
         <v>840.028707453919</v>
       </c>
       <c r="O4" t="n">
-        <v>840.028707453919</v>
+        <v>840.0287074539191</v>
       </c>
       <c r="P4" t="n">
-        <v>840.0287074539191</v>
+        <v>840.0287074539189</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-1.294612485652151e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993634</v>
+        <v>165.7414346993635</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>244.4299457637121</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.8117143050551</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11.11965843648079</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>352.9748818646107</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>398.6016254125125</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>177.6915074588397</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>151.3442930716741</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>128.4988568149598</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>214.4805104606442</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>13.49974891371826</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31144,25 +31144,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>73.87984549392695</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993542</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31618,7 +31618,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423999</v>
       </c>
       <c r="L15" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32551,10 +32551,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32791,16 +32791,16 @@
         <v>105.7579082395326</v>
       </c>
       <c r="K24" t="n">
-        <v>180.7571100531484</v>
+        <v>22.45265114067121</v>
       </c>
       <c r="L24" t="n">
-        <v>243.0502412793305</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>283.6281676337122</v>
       </c>
       <c r="N24" t="n">
-        <v>241.8479868104595</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O24" t="n">
         <v>266.331611729721</v>
@@ -33031,16 +33031,16 @@
         <v>180.7571100531484</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M27" t="n">
-        <v>262.5142971235034</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N27" t="n">
-        <v>291.1349612690237</v>
+        <v>280.1032990289121</v>
       </c>
       <c r="O27" t="n">
-        <v>266.331611729721</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>213.7545986227551</v>
@@ -33262,28 +33262,28 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J30" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>180.7571100531484</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N30" t="n">
-        <v>184.1727044666738</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O30" t="n">
         <v>266.331611729721</v>
       </c>
       <c r="P30" t="n">
-        <v>213.7545986227551</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>142.889288399023</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>69.50043865367546</v>
@@ -33511,16 +33511,16 @@
         <v>283.6281676337122</v>
       </c>
       <c r="N33" t="n">
-        <v>291.1349612690237</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>266.331611729721</v>
       </c>
       <c r="P33" t="n">
-        <v>146.4773068595974</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>142.889288399023</v>
       </c>
       <c r="R33" t="n">
         <v>69.50043865367546</v>
@@ -33739,25 +33739,25 @@
         <v>105.7579082395326</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L36" t="n">
         <v>243.0502412793305</v>
       </c>
       <c r="M36" t="n">
-        <v>44.49921059422263</v>
+        <v>283.6281676337122</v>
       </c>
       <c r="N36" t="n">
-        <v>291.1349612690237</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>266.331611729721</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>213.7545986227551</v>
       </c>
       <c r="Q36" t="n">
-        <v>142.889288399023</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>69.50043865367546</v>
@@ -33985,16 +33985,16 @@
         <v>283.6281676337122</v>
       </c>
       <c r="N39" t="n">
-        <v>123.199359303631</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O39" t="n">
-        <v>266.331611729721</v>
+        <v>243.918707911541</v>
       </c>
       <c r="P39" t="n">
-        <v>213.7545986227551</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>142.889288399023</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>69.50043865367546</v>
@@ -34210,13 +34210,13 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J42" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>180.7571100531484</v>
       </c>
       <c r="L42" t="n">
-        <v>141.1602931488179</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M42" t="n">
         <v>283.6281676337122</v>
@@ -34231,7 +34231,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>69.50043865367546</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.09213530134129</v>
+        <v>2.092135301341289</v>
       </c>
       <c r="H44" t="n">
-        <v>21.42608065486149</v>
+        <v>21.42608065486148</v>
       </c>
       <c r="I44" t="n">
-        <v>80.65704620496015</v>
+        <v>80.65704620496014</v>
       </c>
       <c r="J44" t="n">
-        <v>177.5673685322155</v>
+        <v>177.5673685322154</v>
       </c>
       <c r="K44" t="n">
-        <v>266.1274558379923</v>
+        <v>266.1274558379922</v>
       </c>
       <c r="L44" t="n">
-        <v>330.1546415664159</v>
+        <v>330.1546415664158</v>
       </c>
       <c r="M44" t="n">
-        <v>367.360652731644</v>
+        <v>367.3606527316439</v>
       </c>
       <c r="N44" t="n">
-        <v>373.30493215658</v>
+        <v>373.3049321565799</v>
       </c>
       <c r="O44" t="n">
-        <v>352.5012617538675</v>
+        <v>352.5012617538674</v>
       </c>
       <c r="P44" t="n">
-        <v>300.8516715020044</v>
+        <v>300.8516715020043</v>
       </c>
       <c r="Q44" t="n">
         <v>225.9270760227193</v>
@@ -34395,10 +34395,10 @@
         <v>131.4200941228799</v>
       </c>
       <c r="S44" t="n">
-        <v>47.67453317931469</v>
+        <v>47.67453317931468</v>
       </c>
       <c r="T44" t="n">
-        <v>9.158322281621501</v>
+        <v>9.158322281621498</v>
       </c>
       <c r="U44" t="n">
         <v>0.1673708241073031</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.119391071845013</v>
+        <v>1.119391071845012</v>
       </c>
       <c r="H45" t="n">
         <v>10.81096114123999</v>
@@ -34447,16 +34447,16 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J45" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>180.7571100531484</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>243.0502412793305</v>
       </c>
       <c r="M45" t="n">
-        <v>73.79485325079844</v>
+        <v>283.6281676337121</v>
       </c>
       <c r="N45" t="n">
         <v>291.1349612690237</v>
@@ -34465,22 +34465,22 @@
         <v>266.331611729721</v>
       </c>
       <c r="P45" t="n">
-        <v>213.7545986227551</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>142.889288399023</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>69.50043865367546</v>
+        <v>69.50043865367545</v>
       </c>
       <c r="S45" t="n">
         <v>20.79219819852467</v>
       </c>
       <c r="T45" t="n">
-        <v>4.511931557129676</v>
+        <v>4.511931557129675</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0736441494634877</v>
+        <v>0.07364414946348768</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.938459871851657</v>
+        <v>0.9384598718516568</v>
       </c>
       <c r="H46" t="n">
-        <v>8.343761406099285</v>
+        <v>8.343761406099281</v>
       </c>
       <c r="I46" t="n">
         <v>28.22204778259347</v>
       </c>
       <c r="J46" t="n">
-        <v>66.34911293991215</v>
+        <v>66.34911293991213</v>
       </c>
       <c r="K46" t="n">
         <v>109.0319742024016</v>
@@ -34535,7 +34535,7 @@
         <v>139.5233885842</v>
       </c>
       <c r="M46" t="n">
-        <v>147.1078506394375</v>
+        <v>147.1078506394374</v>
       </c>
       <c r="N46" t="n">
         <v>143.609954753445</v>
@@ -34547,7 +34547,7 @@
         <v>113.5024557737676</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.58321708750557</v>
+        <v>78.58321708750556</v>
       </c>
       <c r="R46" t="n">
         <v>42.19656841980267</v>
@@ -34556,10 +34556,10 @@
         <v>16.35479613036023</v>
       </c>
       <c r="T46" t="n">
-        <v>4.009783088820715</v>
+        <v>4.009783088820714</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05118872028281771</v>
+        <v>0.0511887202828177</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727917</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L15" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624593</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K24" t="n">
-        <v>307.380908091368</v>
+        <v>149.0764491788908</v>
       </c>
       <c r="L24" t="n">
-        <v>475.3362068029155</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>607.1991974616938</v>
       </c>
       <c r="N24" t="n">
-        <v>110.5062747271262</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O24" t="n">
         <v>517.5976865620062</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42.91567107878939</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M27" t="n">
-        <v>586.0853269514849</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
-        <v>639.135623529244</v>
+        <v>628.1039612891324</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620062</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>398.242959848362</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>307.380908091368</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N30" t="n">
-        <v>532.1733667268941</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O30" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P30" t="n">
-        <v>398.242959848362</v>
+        <v>82.59841309509467</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.9848020488506</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>105.0113169132747</v>
       </c>
       <c r="K33" t="n">
         <v>307.380908091368</v>
@@ -37159,16 +37159,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>639.135623529244</v>
+        <v>5.49495781385138</v>
       </c>
       <c r="O33" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P33" t="n">
-        <v>12.50289944526717</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>105.0113169132747</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L36" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M36" t="n">
-        <v>368.0702404222042</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>639.135623529244</v>
+        <v>218.4797598627019</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q36" t="n">
-        <v>212.9848020488506</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M39" t="n">
-        <v>141.4941337116938</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>471.2000215638512</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O39" t="n">
-        <v>517.5976865620062</v>
+        <v>495.1847827438261</v>
       </c>
       <c r="P39" t="n">
-        <v>398.242959848362</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.9848020488506</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>307.380908091368</v>
       </c>
       <c r="L42" t="n">
-        <v>373.4462586724029</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
         <v>607.1991974616938</v>
@@ -37876,7 +37876,7 @@
         <v>517.5976865620062</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>82.59841309509467</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>165.6180791776029</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641764</v>
       </c>
       <c r="L44" t="n">
-        <v>512.0494411468791</v>
+        <v>512.049441146879</v>
       </c>
       <c r="M44" t="n">
-        <v>586.5279529972038</v>
+        <v>586.5279529972037</v>
       </c>
       <c r="N44" t="n">
         <v>581.2387929719732</v>
       </c>
       <c r="O44" t="n">
-        <v>503.2032315949261</v>
+        <v>503.203231594926</v>
       </c>
       <c r="P44" t="n">
-        <v>391.4173839182175</v>
+        <v>391.4173839182174</v>
       </c>
       <c r="Q44" t="n">
         <v>215.9363768081745</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>307.3809080913679</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>475.3362068029155</v>
       </c>
       <c r="M45" t="n">
-        <v>397.36588307878</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
         <v>639.135623529244</v>
       </c>
       <c r="O45" t="n">
-        <v>517.5976865620062</v>
+        <v>517.5976865620061</v>
       </c>
       <c r="P45" t="n">
-        <v>398.242959848362</v>
+        <v>82.59841309509467</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.9848020488506</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>86.76248237651873</v>
+        <v>86.7624823765187</v>
       </c>
       <c r="L46" t="n">
         <v>167.1134138445161</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1896992.732325092</v>
+        <v>1923393.457392213</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190398.7286330001</v>
+        <v>150619.9067075803</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5996855.681156754</v>
+        <v>5996855.68115675</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>110.2530958569708</v>
+        <v>244.8695148436734</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>6.028559943668232</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>190.271393580297</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8.274420329198929</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>100.7763998124753</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748118</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>70.80276983270106</v>
       </c>
       <c r="Y7" t="n">
-        <v>67.24036028042069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>150.7923813103633</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>333.7356466614543</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>52.82290122762556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>259.1612999286631</v>
       </c>
     </row>
     <row r="12">
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>268.6413070582232</v>
       </c>
       <c r="V13" t="n">
-        <v>156.1271626621471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>297.5642569908808</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.0463428239916</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>34.10050473850166</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>216.6993815150877</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>344.2489132431066</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>139.1005047045661</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.87170836083652</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>292.9415311655807</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>340.0237825764897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>156.1271626621473</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>129.6781866221428</v>
       </c>
       <c r="T22" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,22 +2320,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>87.79355960753867</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>310.1342146024381</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
         <v>129.8188433654458</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1782820837292</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>105.7443427977094</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>123.8553069454837</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.2106022137938</v>
@@ -2575,7 +2575,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.44902381826978</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>157.0640249192999</v>
       </c>
       <c r="T26" t="n">
-        <v>145.3091054700679</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>103.7162804660433</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>160.2486405970177</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>42.09720733768938</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>323.9519724193951</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>206.4070814137249</v>
       </c>
       <c r="V31" t="n">
-        <v>79.9856103771547</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,16 +3040,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
-        <v>318.0487214609057</v>
+        <v>196.8904747050324</v>
       </c>
       <c r="I32" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>176.8640025054381</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>50.845229019865</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>81.75945942673124</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>173.4950219682918</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>286.8070273561528</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>134.4149289833799</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>79.9856103771547</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>146.602323834644</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>18.44902381826978</v>
       </c>
       <c r="S38" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>244.8281851478184</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>90.51994115502741</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>2.594187751786432</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>302.9512155548741</v>
       </c>
       <c r="H41" t="n">
-        <v>244.828185147819</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>40.77616165468343</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.2696601345979</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>116.8207034525825</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826981</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>237.2319009136857</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>207.661801906612</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.75072892060351</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>87.11061241409692</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="C2" t="n">
-        <v>1860.708406770827</v>
+        <v>1843.218611560565</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1019.519018857857</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C5" t="n">
-        <v>1019.519018857857</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D5" t="n">
-        <v>1019.519018857857</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E5" t="n">
-        <v>633.7307662596122</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="F5" t="n">
-        <v>625.372765927088</v>
+        <v>727.1671091720125</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252749</v>
+        <v>309.2033010701994</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533155</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073314</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224085</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1796.25819089779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y5" t="n">
-        <v>1406.118858921978</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="6">
@@ -4628,16 +4628,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572643</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4728,49 +4728,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694733</v>
+        <v>656.6110348804735</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.7922583306645</v>
+        <v>656.6110348804735</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>882.8926947117852</v>
+        <v>1168.064026826586</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U11" t="n">
-        <v>1993.54646147304</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V11" t="n">
-        <v>1662.48357412947</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W11" t="n">
-        <v>1309.714918859356</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="X11" t="n">
-        <v>936.2491605982757</v>
+        <v>1816.442957727741</v>
       </c>
       <c r="Y11" t="n">
-        <v>936.2491605982757</v>
+        <v>1554.663866890708</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5223,28 +5223,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T13" t="n">
-        <v>500.820796875036</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U13" t="n">
-        <v>211.6471865296039</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1732.515907621104</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C14" t="n">
-        <v>1363.553390680693</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D14" t="n">
-        <v>1363.553390680693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5311,19 +5311,19 @@
         <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W14" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X14" t="n">
-        <v>2122.655239596916</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y14" t="n">
-        <v>1732.515907621104</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036444</v>
@@ -5469,19 +5469,19 @@
         <v>500.820796875036</v>
       </c>
       <c r="U16" t="n">
-        <v>281.9325327183818</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V16" t="n">
-        <v>281.9325327183818</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W16" t="n">
-        <v>281.9325327183818</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.41262192169</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C17" t="n">
-        <v>1780.41262192169</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1358.887193518369</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>973.098940920125</v>
       </c>
       <c r="F17" t="n">
         <v>625.3727659270879</v>
@@ -5518,16 +5518,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2501.614841241073</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>2170.551953897502</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W17" t="n">
-        <v>2170.551953897502</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X17" t="n">
-        <v>2170.551953897502</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y17" t="n">
-        <v>1780.41262192169</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5594,13 +5594,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417902</v>
@@ -5615,22 +5615,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571379</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>140.6820811747448</v>
       </c>
       <c r="F19" t="n">
         <v>53.94298182036445</v>
@@ -5709,16 +5709,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447095</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C20" t="n">
-        <v>1194.175505447095</v>
+        <v>1564.581483840919</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.175505447095</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>808.3872528488505</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>397.4013480592429</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5791,13 +5791,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5831,7 +5831,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>266.2060027641992</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>211.6471865296041</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>597.1409169113407</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="U22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y22" t="n">
-        <v>211.6471865296041</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1056.264408046191</v>
+        <v>1998.59733398396</v>
       </c>
       <c r="C23" t="n">
-        <v>967.5840448062531</v>
+        <v>1629.634817043549</v>
       </c>
       <c r="D23" t="n">
-        <v>609.3183461995027</v>
+        <v>1629.634817043549</v>
       </c>
       <c r="E23" t="n">
-        <v>609.3183461995027</v>
+        <v>1243.846564445304</v>
       </c>
       <c r="F23" t="n">
-        <v>198.3324414098951</v>
+        <v>832.860659655697</v>
       </c>
       <c r="G23" t="n">
-        <v>198.3324414098951</v>
+        <v>519.5937762188908</v>
       </c>
       <c r="H23" t="n">
         <v>198.3324414098951</v>
       </c>
       <c r="I23" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J23" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K23" t="n">
-        <v>597.6453821726758</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L23" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M23" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N23" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O23" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P23" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q23" t="n">
         <v>3360.114829815676</v>
@@ -6019,22 +6019,22 @@
         <v>3360.114829815676</v>
       </c>
       <c r="T23" t="n">
-        <v>3144.016317409101</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="U23" t="n">
-        <v>2890.30088096089</v>
+        <v>3106.399393367465</v>
       </c>
       <c r="V23" t="n">
-        <v>2559.237993617319</v>
+        <v>2775.336506023894</v>
       </c>
       <c r="W23" t="n">
-        <v>2206.469338347204</v>
+        <v>2775.336506023894</v>
       </c>
       <c r="X23" t="n">
-        <v>1833.003580086125</v>
+        <v>2775.336506023894</v>
       </c>
       <c r="Y23" t="n">
-        <v>1442.864248110313</v>
+        <v>2385.197174048082</v>
       </c>
     </row>
     <row r="24">
@@ -6059,19 +6059,19 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H24" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I24" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J24" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K24" t="n">
-        <v>318.7491850275574</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="L24" t="n">
         <v>318.7491850275574</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.131403481083</v>
+        <v>511.3457255399532</v>
       </c>
       <c r="C25" t="n">
-        <v>324.131403481083</v>
+        <v>511.3457255399532</v>
       </c>
       <c r="D25" t="n">
-        <v>174.0147640687473</v>
+        <v>511.3457255399532</v>
       </c>
       <c r="E25" t="n">
-        <v>174.0147640687473</v>
+        <v>511.3457255399532</v>
       </c>
       <c r="F25" t="n">
-        <v>67.20229659631353</v>
+        <v>364.4557780420428</v>
       </c>
       <c r="G25" t="n">
-        <v>67.20229659631353</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H25" t="n">
-        <v>67.20229659631353</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I25" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J25" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K25" t="n">
         <v>153.0971541490671</v>
@@ -6171,28 +6171,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R25" t="n">
-        <v>954.5619983528702</v>
+        <v>818.1005610221966</v>
       </c>
       <c r="S25" t="n">
-        <v>954.5619983528702</v>
+        <v>692.9941903701929</v>
       </c>
       <c r="T25" t="n">
-        <v>954.5619983528702</v>
+        <v>692.9941903701929</v>
       </c>
       <c r="U25" t="n">
-        <v>954.5619983528702</v>
+        <v>692.9941903701929</v>
       </c>
       <c r="V25" t="n">
-        <v>954.5619983528702</v>
+        <v>692.9941903701929</v>
       </c>
       <c r="W25" t="n">
-        <v>954.5619983528702</v>
+        <v>692.9941903701929</v>
       </c>
       <c r="X25" t="n">
-        <v>726.5724474548529</v>
+        <v>692.9941903701929</v>
       </c>
       <c r="Y25" t="n">
-        <v>505.7798683113227</v>
+        <v>692.9941903701929</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1691.728992438146</v>
+        <v>1971.584752414172</v>
       </c>
       <c r="C26" t="n">
-        <v>1322.766475497735</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="D26" t="n">
-        <v>1322.766475497735</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="E26" t="n">
-        <v>936.9782228994906</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="F26" t="n">
-        <v>936.9782228994906</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="G26" t="n">
-        <v>519.5937762188908</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H26" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I26" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726752</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908085</v>
@@ -6241,7 +6241,7 @@
         <v>2260.663407417571</v>
       </c>
       <c r="O26" t="n">
-        <v>2758.834606696547</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P26" t="n">
         <v>3146.337816775583</v>
@@ -6250,28 +6250,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R26" t="n">
-        <v>3341.479452221464</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S26" t="n">
-        <v>3341.479452221464</v>
+        <v>3201.464299594161</v>
       </c>
       <c r="T26" t="n">
-        <v>3194.702578009274</v>
+        <v>2985.365787187585</v>
       </c>
       <c r="U26" t="n">
-        <v>3194.702578009274</v>
+        <v>2731.650350739374</v>
       </c>
       <c r="V26" t="n">
-        <v>3194.702578009274</v>
+        <v>2731.650350739374</v>
       </c>
       <c r="W26" t="n">
-        <v>2841.93392273916</v>
+        <v>2731.650350739374</v>
       </c>
       <c r="X26" t="n">
-        <v>2468.46816447808</v>
+        <v>2358.184592478294</v>
       </c>
       <c r="Y26" t="n">
-        <v>2078.328832502268</v>
+        <v>2358.184592478294</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.7980786902002</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C28" t="n">
-        <v>680.8618957622933</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D28" t="n">
-        <v>530.7452563499576</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E28" t="n">
-        <v>382.8321627675644</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F28" t="n">
-        <v>235.942215269654</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G28" t="n">
         <v>67.20229659631352</v>
@@ -6417,19 +6417,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U28" t="n">
-        <v>849.7980786902002</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V28" t="n">
-        <v>849.7980786902002</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W28" t="n">
-        <v>849.7980786902002</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="X28" t="n">
-        <v>849.7980786902002</v>
+        <v>248.8507614265532</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.7980786902002</v>
+        <v>248.8507614265532</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1507.442979306765</v>
+        <v>1037.629030451979</v>
       </c>
       <c r="C29" t="n">
-        <v>1138.480462366354</v>
+        <v>995.106598797747</v>
       </c>
       <c r="D29" t="n">
-        <v>780.2147637596033</v>
+        <v>995.106598797747</v>
       </c>
       <c r="E29" t="n">
-        <v>394.4265111613591</v>
+        <v>609.3183461995027</v>
       </c>
       <c r="F29" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="G29" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H29" t="n">
-        <v>67.20229659631352</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I29" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K29" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L29" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M29" t="n">
         <v>1685.237002375317</v>
@@ -6493,22 +6493,22 @@
         <v>3341.479452221464</v>
       </c>
       <c r="T29" t="n">
-        <v>3341.479452221464</v>
+        <v>3125.380939814888</v>
       </c>
       <c r="U29" t="n">
-        <v>3341.479452221464</v>
+        <v>2871.665503366677</v>
       </c>
       <c r="V29" t="n">
-        <v>3010.416564877893</v>
+        <v>2540.602616023106</v>
       </c>
       <c r="W29" t="n">
-        <v>2657.647909607779</v>
+        <v>2187.833960752992</v>
       </c>
       <c r="X29" t="n">
-        <v>2284.182151346699</v>
+        <v>1814.368202491912</v>
       </c>
       <c r="Y29" t="n">
-        <v>1894.042819370887</v>
+        <v>1424.2288705161</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.20229659631352</v>
+        <v>343.6289529510954</v>
       </c>
       <c r="C31" t="n">
-        <v>67.20229659631352</v>
+        <v>343.6289529510954</v>
       </c>
       <c r="D31" t="n">
-        <v>67.20229659631352</v>
+        <v>343.6289529510954</v>
       </c>
       <c r="E31" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="F31" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="G31" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="H31" t="n">
-        <v>67.20229659631352</v>
+        <v>195.7158593687022</v>
       </c>
       <c r="I31" t="n">
         <v>67.20229659631352</v>
@@ -6654,19 +6654,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U31" t="n">
-        <v>665.4025633668014</v>
+        <v>746.0699969248652</v>
       </c>
       <c r="V31" t="n">
-        <v>584.6090175312916</v>
+        <v>746.0699969248652</v>
       </c>
       <c r="W31" t="n">
-        <v>295.1918474943309</v>
+        <v>746.0699969248652</v>
       </c>
       <c r="X31" t="n">
-        <v>67.20229659631352</v>
+        <v>746.0699969248652</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.20229659631352</v>
+        <v>525.2774177813351</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2049.994691044897</v>
+        <v>1838.505866650336</v>
       </c>
       <c r="C32" t="n">
-        <v>1681.032174104485</v>
+        <v>1838.505866650336</v>
       </c>
       <c r="D32" t="n">
-        <v>1322.766475497735</v>
+        <v>1480.240168043586</v>
       </c>
       <c r="E32" t="n">
-        <v>936.9782228994906</v>
+        <v>1094.451915445341</v>
       </c>
       <c r="F32" t="n">
-        <v>936.9782228994906</v>
+        <v>683.466010655734</v>
       </c>
       <c r="G32" t="n">
-        <v>519.5937762188908</v>
+        <v>266.0815639751341</v>
       </c>
       <c r="H32" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I32" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J32" t="n">
-        <v>231.1641949821403</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726751</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L32" t="n">
-        <v>1104.574328908085</v>
+        <v>1104.574328908086</v>
       </c>
       <c r="M32" t="n">
         <v>1685.237002375317</v>
       </c>
       <c r="N32" t="n">
-        <v>2260.663407417571</v>
+        <v>2260.66340741757</v>
       </c>
       <c r="O32" t="n">
-        <v>2758.834606696548</v>
+        <v>2758.834606696547</v>
       </c>
       <c r="P32" t="n">
         <v>3146.337816775583</v>
@@ -6733,19 +6733,19 @@
         <v>3341.479452221464</v>
       </c>
       <c r="U32" t="n">
-        <v>3162.828944640213</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V32" t="n">
-        <v>3162.828944640213</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="W32" t="n">
-        <v>2810.060289370099</v>
+        <v>2988.710796951349</v>
       </c>
       <c r="X32" t="n">
-        <v>2436.594531109019</v>
+        <v>2615.24503869027</v>
       </c>
       <c r="Y32" t="n">
-        <v>2436.594531109019</v>
+        <v>2225.105706714458</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J33" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K33" t="n">
-        <v>475.4705993509098</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L33" t="n">
-        <v>946.0534440857962</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M33" t="n">
-        <v>1547.180649572873</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.620657808586</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.042367504972</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="P33" t="n">
         <v>2459.30289775485</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="C34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="D34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="E34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="F34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H34" t="n">
-        <v>118.5611137880963</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I34" t="n">
         <v>67.20229659631352</v>
@@ -6882,28 +6882,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R34" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S34" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T34" t="n">
-        <v>818.1005610221966</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="U34" t="n">
-        <v>818.1005610221966</v>
+        <v>439.2047791855279</v>
       </c>
       <c r="V34" t="n">
-        <v>563.4160728163098</v>
+        <v>439.2047791855279</v>
       </c>
       <c r="W34" t="n">
-        <v>273.9989027793492</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="X34" t="n">
-        <v>273.9989027793492</v>
+        <v>149.7876091485673</v>
       </c>
       <c r="Y34" t="n">
-        <v>273.9989027793492</v>
+        <v>67.20229659631352</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1722.334814344909</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C35" t="n">
-        <v>1353.372297404497</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D35" t="n">
-        <v>995.106598797747</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E35" t="n">
-        <v>609.3183461995027</v>
+        <v>478.1882013859211</v>
       </c>
       <c r="F35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I35" t="n">
         <v>67.20229659631353</v>
@@ -6940,7 +6940,7 @@
         <v>231.164194982141</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726758</v>
+        <v>597.6453821726759</v>
       </c>
       <c r="L35" t="n">
         <v>1104.574328908086</v>
@@ -6952,7 +6952,7 @@
         <v>2260.663407417572</v>
       </c>
       <c r="O35" t="n">
-        <v>2758.834606696549</v>
+        <v>2758.834606696548</v>
       </c>
       <c r="P35" t="n">
         <v>3146.337816775584</v>
@@ -6970,19 +6970,19 @@
         <v>3341.479452221464</v>
       </c>
       <c r="U35" t="n">
-        <v>3166.231955283796</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V35" t="n">
-        <v>2835.169067940225</v>
+        <v>3010.416564877894</v>
       </c>
       <c r="W35" t="n">
-        <v>2482.400412670111</v>
+        <v>2657.647909607779</v>
       </c>
       <c r="X35" t="n">
-        <v>2108.934654409031</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y35" t="n">
-        <v>2108.934654409031</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J36" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K36" t="n">
-        <v>475.4705993509098</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L36" t="n">
-        <v>946.0534440857962</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M36" t="n">
-        <v>1547.180649572873</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N36" t="n">
         <v>1763.475611836948</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.20229659631353</v>
+        <v>518.604818306332</v>
       </c>
       <c r="C37" t="n">
-        <v>67.20229659631353</v>
+        <v>518.604818306332</v>
       </c>
       <c r="D37" t="n">
-        <v>67.20229659631353</v>
+        <v>518.604818306332</v>
       </c>
       <c r="E37" t="n">
-        <v>67.20229659631353</v>
+        <v>382.8321627675645</v>
       </c>
       <c r="F37" t="n">
-        <v>67.20229659631353</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G37" t="n">
         <v>67.20229659631353</v>
@@ -7122,25 +7122,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S37" t="n">
-        <v>873.7684525173604</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="T37" t="n">
-        <v>873.7684525173604</v>
+        <v>518.604818306332</v>
       </c>
       <c r="U37" t="n">
-        <v>584.6090175312916</v>
+        <v>518.604818306332</v>
       </c>
       <c r="V37" t="n">
-        <v>584.6090175312916</v>
+        <v>518.604818306332</v>
       </c>
       <c r="W37" t="n">
-        <v>295.1918474943309</v>
+        <v>518.604818306332</v>
       </c>
       <c r="X37" t="n">
-        <v>67.20229659631353</v>
+        <v>518.604818306332</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.20229659631353</v>
+        <v>518.604818306332</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1459.432064943831</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C38" t="n">
-        <v>1090.469548003419</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D38" t="n">
-        <v>732.2038493966686</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4155967984244</v>
+        <v>478.188201385921</v>
       </c>
       <c r="F38" t="n">
-        <v>346.4155967984244</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="G38" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="H38" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I38" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J38" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K38" t="n">
         <v>597.6453821726751</v>
@@ -7201,25 +7201,25 @@
         <v>3341.479452221464</v>
       </c>
       <c r="S38" t="n">
-        <v>3178.504162921534</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="T38" t="n">
-        <v>2962.405650514958</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="U38" t="n">
-        <v>2962.405650514958</v>
+        <v>3341.479452221464</v>
       </c>
       <c r="V38" t="n">
-        <v>2962.405650514958</v>
+        <v>3094.178255102455</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.636995244844</v>
+        <v>2741.409599832341</v>
       </c>
       <c r="X38" t="n">
-        <v>2236.171236983764</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y38" t="n">
-        <v>1846.031905007952</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>67.20229659631352</v>
       </c>
       <c r="J39" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K39" t="n">
-        <v>475.4705993509098</v>
+        <v>371.5093956067678</v>
       </c>
       <c r="L39" t="n">
-        <v>946.0534440857962</v>
+        <v>842.0922403416541</v>
       </c>
       <c r="M39" t="n">
-        <v>1547.180649572873</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N39" t="n">
-        <v>2179.924916866824</v>
+        <v>2075.963713122682</v>
       </c>
       <c r="O39" t="n">
-        <v>2670.157851783212</v>
+        <v>2588.385422819068</v>
       </c>
       <c r="P39" t="n">
         <v>2670.157851783212</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.20229659631352</v>
+        <v>455.6431675015368</v>
       </c>
       <c r="C40" t="n">
-        <v>67.20229659631352</v>
+        <v>364.2088835065596</v>
       </c>
       <c r="D40" t="n">
-        <v>67.20229659631352</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="E40" t="n">
-        <v>67.20229659631352</v>
+        <v>214.0922440942239</v>
       </c>
       <c r="F40" t="n">
         <v>67.20229659631352</v>
@@ -7362,22 +7362,22 @@
         <v>744.8026024876056</v>
       </c>
       <c r="T40" t="n">
-        <v>518.604818306332</v>
+        <v>744.8026024876056</v>
       </c>
       <c r="U40" t="n">
-        <v>518.604818306332</v>
+        <v>455.6431675015368</v>
       </c>
       <c r="V40" t="n">
-        <v>515.9844266378609</v>
+        <v>455.6431675015368</v>
       </c>
       <c r="W40" t="n">
-        <v>515.9844266378609</v>
+        <v>455.6431675015368</v>
       </c>
       <c r="X40" t="n">
-        <v>287.9948757398436</v>
+        <v>455.6431675015368</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.20229659631352</v>
+        <v>455.6431675015368</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1838.505866650337</v>
+        <v>1860.21163457688</v>
       </c>
       <c r="C41" t="n">
-        <v>1469.543349709925</v>
+        <v>1491.249117636468</v>
       </c>
       <c r="D41" t="n">
-        <v>1111.277651103175</v>
+        <v>1491.249117636468</v>
       </c>
       <c r="E41" t="n">
-        <v>725.4893985049303</v>
+        <v>1105.460865038224</v>
       </c>
       <c r="F41" t="n">
-        <v>314.5034937153227</v>
+        <v>694.4749602486163</v>
       </c>
       <c r="G41" t="n">
-        <v>314.5034937153227</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H41" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I41" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J41" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726758</v>
+        <v>597.6453821726755</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M41" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N41" t="n">
         <v>2260.663407417571</v>
@@ -7429,7 +7429,7 @@
         <v>2758.834606696548</v>
       </c>
       <c r="P41" t="n">
-        <v>3146.337816775584</v>
+        <v>3146.337816775583</v>
       </c>
       <c r="Q41" t="n">
         <v>3360.114829815676</v>
@@ -7447,16 +7447,16 @@
         <v>3341.479452221464</v>
       </c>
       <c r="V41" t="n">
-        <v>3341.479452221464</v>
+        <v>3010.416564877893</v>
       </c>
       <c r="W41" t="n">
-        <v>2988.71079695135</v>
+        <v>3010.416564877893</v>
       </c>
       <c r="X41" t="n">
-        <v>2615.24503869027</v>
+        <v>2636.950806616813</v>
       </c>
       <c r="Y41" t="n">
-        <v>2225.105706714458</v>
+        <v>2246.811474641001</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>358.6212903526892</v>
       </c>
       <c r="G42" t="n">
-        <v>221.0211629876735</v>
+        <v>221.0211629876734</v>
       </c>
       <c r="H42" t="n">
         <v>118.5721901641821</v>
       </c>
       <c r="I42" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J42" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K42" t="n">
         <v>371.5093956067678</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>236.1384795242204</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="C43" t="n">
-        <v>67.20229659631353</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="D43" t="n">
-        <v>67.20229659631353</v>
+        <v>369.5300330854767</v>
       </c>
       <c r="E43" t="n">
-        <v>67.20229659631353</v>
+        <v>369.5300330854767</v>
       </c>
       <c r="F43" t="n">
-        <v>67.20229659631353</v>
+        <v>222.6400855875663</v>
       </c>
       <c r="G43" t="n">
-        <v>67.20229659631353</v>
+        <v>222.6400855875663</v>
       </c>
       <c r="H43" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I43" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="J43" t="n">
-        <v>67.20229659631353</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="K43" t="n">
         <v>153.0971541490671</v>
@@ -7602,19 +7602,19 @@
         <v>954.5619983528702</v>
       </c>
       <c r="U43" t="n">
-        <v>672.471432560347</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V43" t="n">
-        <v>417.7869443544602</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="W43" t="n">
-        <v>417.7869443544602</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="X43" t="n">
-        <v>417.7869443544602</v>
+        <v>410.7180751609145</v>
       </c>
       <c r="Y43" t="n">
-        <v>417.7869443544602</v>
+        <v>410.7180751609145</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.466714898487</v>
+        <v>1960.887934080511</v>
       </c>
       <c r="C44" t="n">
-        <v>1661.504197958076</v>
+        <v>1960.887934080511</v>
       </c>
       <c r="D44" t="n">
-        <v>1303.238499351325</v>
+        <v>1602.622235473761</v>
       </c>
       <c r="E44" t="n">
-        <v>917.4502467530808</v>
+        <v>1216.833982875517</v>
       </c>
       <c r="F44" t="n">
-        <v>506.4643419634733</v>
+        <v>805.8480780859089</v>
       </c>
       <c r="G44" t="n">
-        <v>506.4643419634733</v>
+        <v>388.4636314053091</v>
       </c>
       <c r="H44" t="n">
-        <v>185.2030071544776</v>
+        <v>67.20229659631352</v>
       </c>
       <c r="I44" t="n">
         <v>67.20229659631352</v>
       </c>
       <c r="J44" t="n">
-        <v>231.1641949821405</v>
+        <v>231.1641949821404</v>
       </c>
       <c r="K44" t="n">
-        <v>597.6453821726753</v>
+        <v>597.6453821726751</v>
       </c>
       <c r="L44" t="n">
         <v>1104.574328908086</v>
@@ -7672,28 +7672,28 @@
         <v>3360.114829815675</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221463</v>
+        <v>3360.114829815675</v>
       </c>
       <c r="S44" t="n">
-        <v>3341.479452221463</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="T44" t="n">
-        <v>3341.479452221463</v>
+        <v>3197.139540515745</v>
       </c>
       <c r="U44" t="n">
-        <v>3087.764015773252</v>
+        <v>2943.424104067534</v>
       </c>
       <c r="V44" t="n">
-        <v>2756.701128429681</v>
+        <v>2943.424104067534</v>
       </c>
       <c r="W44" t="n">
-        <v>2403.932473159567</v>
+        <v>2590.65544879742</v>
       </c>
       <c r="X44" t="n">
-        <v>2030.466714898487</v>
+        <v>2351.027266056323</v>
       </c>
       <c r="Y44" t="n">
-        <v>2030.466714898487</v>
+        <v>1960.887934080511</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="C46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="D46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="E46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="F46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="G46" t="n">
-        <v>67.20229659631352</v>
+        <v>222.6400855875663</v>
       </c>
       <c r="H46" t="n">
         <v>67.20229659631352</v>
@@ -7833,25 +7833,25 @@
         <v>954.56199835287</v>
       </c>
       <c r="S46" t="n">
-        <v>954.56199835287</v>
+        <v>744.8026024876053</v>
       </c>
       <c r="T46" t="n">
-        <v>954.56199835287</v>
+        <v>646.0644924667937</v>
       </c>
       <c r="U46" t="n">
-        <v>665.4025633668011</v>
+        <v>646.0644924667937</v>
       </c>
       <c r="V46" t="n">
-        <v>665.4025633668011</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="W46" t="n">
-        <v>375.9853933298405</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="X46" t="n">
-        <v>287.9948757398436</v>
+        <v>391.3800042609068</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.20229659631352</v>
+        <v>391.3800042609068</v>
       </c>
     </row>
   </sheetData>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>136.8366698971847</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>349.8214719460352</v>
+        <v>454.83278885931</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>216.5728205094249</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>329.910940435855</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>127.0766387273905</v>
       </c>
     </row>
     <row r="12">
@@ -23463,19 +23463,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="V13" t="n">
-        <v>96.01048066168093</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>85.1695846725998</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>106.6847578544775</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>133.2092975205493</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>69.58249272689008</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>62.62713249860479</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,19 +23788,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>112.1236628037232</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.54933966209472</v>
       </c>
       <c r="G19" t="n">
         <v>167.3098022590509</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23949,13 +23949,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>61.74151045510223</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24031,7 +24031,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.18263959690364</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24177,13 +24177,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>82.46735232787611</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>277.4793321634689</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.2106022137938</v>
+        <v>103.0763876113556</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>39.67670522522185</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
       </c>
       <c r="I25" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>27.01006717676063</v>
@@ -24411,10 +24411,10 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R25" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>207.661801906612</v>
+        <v>83.80649496112831</v>
       </c>
       <c r="T25" t="n">
         <v>223.9358063394608</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>18.44902381826978</v>
       </c>
       <c r="S26" t="n">
-        <v>161.3455364069306</v>
+        <v>4.281511487630752</v>
       </c>
       <c r="T26" t="n">
-        <v>68.62842181244196</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H28" t="n">
         <v>153.8834111013403</v>
@@ -24657,13 +24657,13 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>182.5515601701648</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>126.2743577395733</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>323.1756844333182</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>82.9240733223163</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>413.2106022137938</v>
@@ -24700,7 +24700,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654458</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>153.8834111013403</v>
       </c>
       <c r="I31" t="n">
-        <v>127.2284271446648</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>27.01006717676063</v>
@@ -24894,19 +24894,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>79.86075922248315</v>
       </c>
       <c r="V31" t="n">
-        <v>172.1520329466733</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>121.1582467558733</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U32" t="n">
-        <v>74.31427957829109</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25092,10 +25092,10 @@
         <v>167.0525194866071</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.8834111013403</v>
       </c>
       <c r="I34" t="n">
-        <v>76.3831981247998</v>
+        <v>127.2284271446648</v>
       </c>
       <c r="J34" t="n">
         <v>27.01006717676063</v>
@@ -25122,19 +25122,19 @@
         <v>7.578826164188811</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S34" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>136.8251939253635</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>77.68326011543735</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>82.92407332231619</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>12.01903366318925</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>153.8834111013403</v>
@@ -25362,22 +25362,22 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S37" t="n">
-        <v>127.6761915294573</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.9358063394608</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>266.6082783791499</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>82.92407332231647</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>76.72687994360042</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.0525194866071</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>249.5434555720416</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.2106022137938</v>
+        <v>110.2593866589197</v>
       </c>
       <c r="H41" t="n">
-        <v>73.22053631308663</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>129.8188433654458</v>
@@ -25687,10 +25687,10 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>107.8393113635289</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>127.2284271446648</v>
@@ -25842,7 +25842,7 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U43" t="n">
-        <v>6.998180501610136</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>12.99813991286332</v>
+        <v>129.8188433654458</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826981</v>
       </c>
       <c r="S44" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>213.9375272825098</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>132.4991997647833</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.8834111013403</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>127.2284271446648</v>
@@ -26073,25 +26073,25 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S46" t="n">
-        <v>207.661801906612</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.9358063394608</v>
+        <v>126.1850774188573</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>138.5990429749402</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650593.3725354548</v>
+        <v>650593.3725354547</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>650593.3725354547</v>
+        <v>650593.3725354548</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650593.3725354549</v>
+        <v>650593.3725354548</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722888.1683131842</v>
+        <v>722888.1683131841</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>722888.1683131841</v>
+        <v>722888.1683131839</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>722888.1683131841</v>
+        <v>722888.1683131839</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>722888.1683131839</v>
+        <v>722888.1683131841</v>
       </c>
     </row>
     <row r="16">
@@ -26316,31 +26316,31 @@
         <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
+        <v>361440.762519697</v>
+      </c>
+      <c r="F2" t="n">
+        <v>361440.762519697</v>
+      </c>
+      <c r="G2" t="n">
+        <v>361440.762519697</v>
+      </c>
+      <c r="H2" t="n">
         <v>361440.7625196971</v>
       </c>
-      <c r="F2" t="n">
-        <v>361440.7625196971</v>
-      </c>
-      <c r="G2" t="n">
-        <v>361440.7625196971</v>
-      </c>
-      <c r="H2" t="n">
-        <v>361440.7625196972</v>
-      </c>
       <c r="I2" t="n">
-        <v>401604.5379517687</v>
+        <v>401604.5379517688</v>
       </c>
       <c r="J2" t="n">
         <v>401604.5379517686</v>
       </c>
       <c r="K2" t="n">
-        <v>401604.5379517685</v>
+        <v>401604.5379517686</v>
       </c>
       <c r="L2" t="n">
         <v>401604.5379517686</v>
@@ -26349,13 +26349,13 @@
         <v>401604.5379517686</v>
       </c>
       <c r="N2" t="n">
-        <v>401604.5379517686</v>
+        <v>401604.5379517687</v>
       </c>
       <c r="O2" t="n">
         <v>401604.5379517686</v>
       </c>
       <c r="P2" t="n">
-        <v>401604.5379517686</v>
+        <v>401604.5379517687</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>151472.5856033439</v>
+        <v>151472.5856033438</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
         <v>139059.139180619</v>
-      </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
@@ -26435,7 +26435,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>596.6330091308228</v>
@@ -26447,10 +26447,10 @@
         <v>596.6330091308228</v>
       </c>
       <c r="L4" t="n">
-        <v>596.6330091308228</v>
+        <v>596.6330091308229</v>
       </c>
       <c r="M4" t="n">
-        <v>596.6330091308228</v>
+        <v>596.6330091308229</v>
       </c>
       <c r="N4" t="n">
         <v>596.6330091308228</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854676</v>
       </c>
       <c r="J5" t="n">
         <v>62418.87211854676</v>
@@ -26508,7 +26508,7 @@
         <v>62418.87211854676</v>
       </c>
       <c r="O5" t="n">
-        <v>62418.87211854677</v>
+        <v>62418.87211854676</v>
       </c>
       <c r="P5" t="n">
         <v>62418.87211854675</v>
@@ -26524,46 +26524,46 @@
         <v>-298734.9902933963</v>
       </c>
       <c r="C6" t="n">
-        <v>291232.8889211485</v>
+        <v>291232.8889211484</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211483</v>
+        <v>291232.8889211484</v>
       </c>
       <c r="E6" t="n">
-        <v>305627.7622114088</v>
+        <v>311089.334582646</v>
       </c>
       <c r="F6" t="n">
-        <v>305627.7622114088</v>
+        <v>311089.334582646</v>
       </c>
       <c r="G6" t="n">
-        <v>305627.7622114088</v>
+        <v>311089.334582646</v>
       </c>
       <c r="H6" t="n">
-        <v>305627.7622114089</v>
+        <v>311089.334582646</v>
       </c>
       <c r="I6" t="n">
-        <v>182654.5844922109</v>
+        <v>186670.2609478938</v>
       </c>
       <c r="J6" t="n">
-        <v>157703.9509029617</v>
+        <v>161719.6273586444</v>
       </c>
       <c r="K6" t="n">
-        <v>334127.1700955546</v>
+        <v>338142.8465512373</v>
       </c>
       <c r="L6" t="n">
-        <v>334127.1700955546</v>
+        <v>338142.8465512373</v>
       </c>
       <c r="M6" t="n">
-        <v>334127.1700955546</v>
+        <v>338142.8465512374</v>
       </c>
       <c r="N6" t="n">
-        <v>334127.1700955546</v>
+        <v>338142.8465512375</v>
       </c>
       <c r="O6" t="n">
-        <v>334127.1700955546</v>
+        <v>338142.8465512373</v>
       </c>
       <c r="P6" t="n">
-        <v>334127.1700955547</v>
+        <v>338142.8465512375</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545555</v>
@@ -26810,7 +26810,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>840.0287074539191</v>
+        <v>840.028707453919</v>
       </c>
       <c r="J4" t="n">
         <v>840.028707453919</v>
@@ -26828,7 +26828,7 @@
         <v>840.028707453919</v>
       </c>
       <c r="O4" t="n">
-        <v>840.0287074539191</v>
+        <v>840.028707453919</v>
       </c>
       <c r="P4" t="n">
         <v>840.0287074539189</v>
@@ -26962,10 +26962,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.294612485652151e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>165.7414346993635</v>
+        <v>165.7414346993634</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>244.4299457637121</v>
+        <v>109.8135267770096</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27542,10 +27542,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>142.5869130745441</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27584,19 +27584,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.01048066168073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>398.6016254125125</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>223.1463729518819</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853704</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491435</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>154.9068855563361</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.3442930716741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>214.4805104606442</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>48.19472341080751</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>86.43447689993542</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736698</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31603,10 +31603,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31618,7 +31618,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31840,13 +31840,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
         <v>205.8702969983122</v>
@@ -31861,7 +31861,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034982</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L18" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
         <v>205.8702969983122</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32551,10 +32551,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>11.76595806653282</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32788,13 +32788,13 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J24" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>22.45265114067121</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>21.80180056858052</v>
       </c>
       <c r="M24" t="n">
         <v>283.6281676337122</v>
@@ -33499,7 +33499,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J33" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>180.7571100531484</v>
@@ -33511,13 +33511,13 @@
         <v>283.6281676337122</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>291.1349612690237</v>
       </c>
       <c r="O33" t="n">
-        <v>266.331611729721</v>
+        <v>135.9452227759653</v>
       </c>
       <c r="P33" t="n">
-        <v>213.7545986227551</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>142.889288399023</v>
@@ -33736,7 +33736,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J36" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>180.7571100531484</v>
@@ -33973,7 +33973,7 @@
         <v>38.54043821922522</v>
       </c>
       <c r="J39" t="n">
-        <v>105.7579082395326</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>180.7571100531484</v>
@@ -33988,7 +33988,7 @@
         <v>291.1349612690237</v>
       </c>
       <c r="O39" t="n">
-        <v>243.918707911541</v>
+        <v>266.331611729721</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770683</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727917</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338901</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35740,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35977,7 +35977,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047524</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>149.0764491788908</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>254.0877660921655</v>
       </c>
       <c r="M24" t="n">
         <v>607.1991974616938</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>307.380908091368</v>
@@ -37159,13 +37159,13 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>5.49495781385138</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O33" t="n">
-        <v>517.5976865620062</v>
+        <v>387.2112976082504</v>
       </c>
       <c r="P33" t="n">
-        <v>398.242959848362</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>212.9848020488506</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>307.380908091368</v>
@@ -37396,7 +37396,7 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>218.4797598627019</v>
+        <v>323.4910767759767</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>307.380908091368</v>
@@ -37636,10 +37636,10 @@
         <v>639.135623529244</v>
       </c>
       <c r="O39" t="n">
-        <v>495.1847827438261</v>
+        <v>517.5976865620062</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>82.59841309509467</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
